--- a/reference/sales_report/FORECAST_TRANSPORT_2022.xlsx
+++ b/reference/sales_report/FORECAST_TRANSPORT_2022.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="101">
   <si>
     <t>SALES_NAME</t>
   </si>
@@ -319,6 +319,21 @@
   </si>
   <si>
     <t>MATAHARI SAKTI</t>
+  </si>
+  <si>
+    <t>YANA PRIMA HASTA PERSADA</t>
+  </si>
+  <si>
+    <t>MEGA SURYA MAS</t>
+  </si>
+  <si>
+    <t>SOFTEX INDONESIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIMA ALLOY STEEL </t>
+  </si>
+  <si>
+    <t>INDOCERIA</t>
   </si>
 </sst>
 </file>
@@ -688,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q84"/>
+  <dimension ref="A1:Q82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -776,32 +791,10 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="2">
-        <v>1000000000</v>
-      </c>
-      <c r="M2" s="2">
-        <v>1000000000</v>
-      </c>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
       <c r="N2" s="2">
-        <v>1000000000</v>
+        <v>1320000000</v>
       </c>
       <c r="O2" s="2">
         <v>1000000000</v>
@@ -829,41 +822,19 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="2">
-        <v>300000000</v>
-      </c>
-      <c r="M3" s="2">
-        <v>300000000</v>
-      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
       <c r="N3" s="2">
-        <v>350000000</v>
+        <v>400000000</v>
       </c>
       <c r="O3" s="2">
-        <v>400000000</v>
+        <v>420000000</v>
       </c>
       <c r="P3" s="2">
-        <v>360000000</v>
+        <v>420000000</v>
       </c>
       <c r="Q3" s="2">
-        <v>356000000</v>
+        <v>330000000</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -876,44 +847,19 @@
       <c r="C4" t="s">
         <v>26</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
       <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4" s="2">
-        <v>150000000</v>
-      </c>
-      <c r="M4" s="2">
-        <v>250000000</v>
-      </c>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
       <c r="N4" s="2">
-        <v>250000000</v>
+        <v>50000000</v>
       </c>
       <c r="O4" s="2">
-        <v>250000000</v>
+        <v>200000000</v>
       </c>
       <c r="P4" s="2">
-        <v>250000000</v>
+        <v>220000000</v>
       </c>
       <c r="Q4" s="2">
         <v>250000000</v>
@@ -935,41 +881,19 @@
       <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="M5" s="2">
-        <v>100000000</v>
-      </c>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
       <c r="N5" s="2">
-        <v>100000000</v>
+        <v>220000000</v>
       </c>
       <c r="O5" s="2">
-        <v>120000000</v>
+        <v>300000000</v>
       </c>
       <c r="P5" s="2">
-        <v>120000000</v>
+        <v>300000000</v>
       </c>
       <c r="Q5" s="2">
-        <v>120000000</v>
+        <v>300000000</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -988,41 +912,17 @@
       <c r="E6" t="s">
         <v>20</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
-        <v>25000000</v>
-      </c>
-      <c r="M6" s="2">
-        <v>25000000</v>
-      </c>
-      <c r="N6" s="2">
-        <v>25000000</v>
-      </c>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
       <c r="O6" s="2">
-        <v>35000000</v>
+        <v>50000000</v>
       </c>
       <c r="P6" s="2">
-        <v>35000000</v>
+        <v>50000000</v>
       </c>
       <c r="Q6" s="2">
-        <v>35000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -1041,41 +941,18 @@
       <c r="E7" t="s">
         <v>20</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>30000000</v>
-      </c>
+      <c r="M7" s="2"/>
       <c r="N7" s="2">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="O7" s="2">
-        <v>30000000</v>
+        <v>40000000</v>
       </c>
       <c r="P7" s="2">
-        <v>30000000</v>
+        <v>50000000</v>
       </c>
       <c r="Q7" s="2">
-        <v>30000000</v>
+        <v>50000000</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
@@ -1094,41 +971,19 @@
       <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8" s="2">
-        <v>50000000</v>
-      </c>
-      <c r="M8" s="2">
-        <v>50000000</v>
-      </c>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
       <c r="N8" s="2">
-        <v>60000000</v>
+        <v>30000000</v>
       </c>
       <c r="O8" s="2">
-        <v>60000000</v>
+        <v>30000000</v>
       </c>
       <c r="P8" s="2">
-        <v>70000000</v>
+        <v>30000000</v>
       </c>
       <c r="Q8" s="2">
-        <v>70000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
@@ -1147,41 +1002,19 @@
       <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9" s="2">
-        <v>40000000</v>
-      </c>
-      <c r="M9" s="2">
-        <v>40000000</v>
-      </c>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
       <c r="N9" s="2">
         <v>50000000</v>
       </c>
       <c r="O9" s="2">
-        <v>50000000</v>
+        <v>60000000</v>
       </c>
       <c r="P9" s="2">
-        <v>60000000</v>
+        <v>65000000</v>
       </c>
       <c r="Q9" s="2">
-        <v>60000000</v>
+        <v>70000000</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
@@ -1200,30 +1033,6 @@
       <c r="E10" t="s">
         <v>20</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
         <v>0</v>
       </c>
@@ -1247,35 +1056,8 @@
       <c r="C11" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
       <c r="E11" t="s">
         <v>20</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1306,30 +1088,6 @@
       <c r="E12" t="s">
         <v>20</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
         <v>0</v>
       </c>
@@ -1359,30 +1117,6 @@
       <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
         <v>0</v>
       </c>
@@ -1412,30 +1146,6 @@
       <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
@@ -1465,41 +1175,17 @@
       <c r="E15" t="s">
         <v>20</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
+      <c r="P15" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>40000000</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
@@ -1518,30 +1204,6 @@
       <c r="E16" t="s">
         <v>20</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
         <v>0</v>
       </c>
@@ -1571,41 +1233,19 @@
       <c r="E17" t="s">
         <v>20</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M17" s="2">
-        <v>10000000</v>
-      </c>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
       <c r="N17" s="2">
-        <v>10000000</v>
+        <v>12000000</v>
       </c>
       <c r="O17" s="2">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
       <c r="P17" s="2">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
       <c r="Q17" s="2">
-        <v>15000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -1624,41 +1264,19 @@
       <c r="E18" t="s">
         <v>20</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M18" s="2">
-        <v>10000000</v>
-      </c>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
       <c r="N18" s="2">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="O18" s="2">
-        <v>15000000</v>
+        <v>7500000</v>
       </c>
       <c r="P18" s="2">
-        <v>15000000</v>
+        <v>7500000</v>
       </c>
       <c r="Q18" s="2">
-        <v>15000000</v>
+        <v>7500000</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -1677,41 +1295,17 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M19" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="N19" s="2">
-        <v>10000000</v>
-      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
       <c r="O19" s="2">
-        <v>15000000</v>
+        <v>25000000</v>
       </c>
       <c r="P19" s="2">
-        <v>15000000</v>
+        <v>30000000</v>
       </c>
       <c r="Q19" s="2">
-        <v>15000000</v>
+        <v>30000000</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -1730,30 +1324,6 @@
       <c r="E20" t="s">
         <v>20</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>0</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
@@ -1783,30 +1353,6 @@
       <c r="E21" t="s">
         <v>20</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
@@ -1836,30 +1382,6 @@
       <c r="E22" t="s">
         <v>20</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
       <c r="N22">
         <v>0</v>
       </c>
@@ -1889,30 +1411,6 @@
       <c r="E23" t="s">
         <v>20</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0</v>
       </c>
@@ -1942,41 +1440,19 @@
       <c r="E24" t="s">
         <v>20</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24" s="2">
-        <v>800000000</v>
-      </c>
-      <c r="M24" s="2">
-        <v>350000000</v>
-      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
       <c r="N24" s="2">
-        <v>350000000</v>
+        <v>160000000</v>
       </c>
       <c r="O24" s="2">
-        <v>350000000</v>
+        <v>200000000</v>
       </c>
       <c r="P24" s="2">
-        <v>350000000</v>
+        <v>225000000</v>
       </c>
       <c r="Q24" s="2">
-        <v>350000000</v>
+        <v>250000000</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
@@ -1995,41 +1471,19 @@
       <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25" s="2">
-        <v>300000000</v>
-      </c>
-      <c r="M25" s="2">
-        <v>300000000</v>
-      </c>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
       <c r="N25" s="2">
         <v>300000000</v>
       </c>
       <c r="O25" s="2">
-        <v>300000000</v>
+        <v>310000000</v>
       </c>
       <c r="P25" s="2">
-        <v>300000000</v>
+        <v>315000000</v>
       </c>
       <c r="Q25" s="2">
-        <v>300000000</v>
+        <v>320000000</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
@@ -2048,41 +1502,19 @@
       <c r="E26" t="s">
         <v>20</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26" s="2">
-        <v>125000000</v>
-      </c>
-      <c r="M26" s="2">
-        <v>125000000</v>
-      </c>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
       <c r="N26" s="2">
-        <v>125000000</v>
+        <v>40000000</v>
       </c>
       <c r="O26" s="2">
-        <v>145000000</v>
+        <v>45000000</v>
       </c>
       <c r="P26" s="2">
-        <v>145000000</v>
+        <v>50000000</v>
       </c>
       <c r="Q26" s="2">
-        <v>155000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
@@ -2101,41 +1533,19 @@
       <c r="E27" t="s">
         <v>20</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27" s="2">
-        <v>150000000</v>
-      </c>
-      <c r="M27" s="2">
-        <v>250000000</v>
-      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
       <c r="N27" s="2">
-        <v>150000000</v>
+        <v>70000000</v>
       </c>
       <c r="O27" s="2">
-        <v>150000000</v>
+        <v>80000000</v>
       </c>
       <c r="P27" s="2">
-        <v>150000000</v>
+        <v>90000000</v>
       </c>
       <c r="Q27" s="2">
-        <v>150000000</v>
+        <v>100000000</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
@@ -2154,41 +1564,19 @@
       <c r="E28" t="s">
         <v>20</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28" s="2">
-        <v>70000000</v>
-      </c>
-      <c r="M28" s="2">
-        <v>70000000</v>
-      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
       <c r="N28" s="2">
-        <v>70000000</v>
+        <v>40000000</v>
       </c>
       <c r="O28" s="2">
-        <v>70000000</v>
+        <v>50000000</v>
       </c>
       <c r="P28" s="2">
-        <v>70000000</v>
+        <v>55000000</v>
       </c>
       <c r="Q28" s="2">
-        <v>70000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
@@ -2207,41 +1595,19 @@
       <c r="E29" t="s">
         <v>20</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="M29" s="2">
-        <v>20000000</v>
-      </c>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
       <c r="N29" s="2">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="O29" s="2">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="P29" s="2">
-        <v>30000000</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2">
-        <v>40000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
@@ -2260,41 +1626,19 @@
       <c r="E30" t="s">
         <v>20</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="M30" s="2">
-        <v>20000000</v>
-      </c>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
       <c r="N30" s="2">
-        <v>25000000</v>
+        <v>40000000</v>
       </c>
       <c r="O30" s="2">
-        <v>25000000</v>
+        <v>45000000</v>
       </c>
       <c r="P30" s="2">
-        <v>30000000</v>
+        <v>50000000</v>
       </c>
       <c r="Q30" s="2">
-        <v>30000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
@@ -2313,41 +1657,19 @@
       <c r="E31" t="s">
         <v>20</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31" s="2">
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2">
         <v>15000000</v>
       </c>
-      <c r="M31" s="2">
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
         <v>15000000</v>
       </c>
-      <c r="N31" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="O31" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="P31" s="2">
-        <v>20000000</v>
-      </c>
       <c r="Q31" s="2">
-        <v>25000000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
@@ -2366,41 +1688,17 @@
       <c r="E32" t="s">
         <v>20</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>0</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
+      <c r="N32" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="O32" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="P32" s="2">
+        <v>6000000</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>6000000</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -2419,41 +1717,19 @@
       <c r="E33" t="s">
         <v>20</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33" s="2">
-        <v>7500000</v>
-      </c>
-      <c r="M33" s="2">
-        <v>7500000</v>
-      </c>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
       <c r="N33" s="2">
-        <v>7500000</v>
+        <v>30000000</v>
       </c>
       <c r="O33" s="2">
-        <v>10000000</v>
+        <v>40000000</v>
       </c>
       <c r="P33" s="2">
-        <v>10000000</v>
+        <v>43000000</v>
       </c>
       <c r="Q33" s="2">
-        <v>10000000</v>
+        <v>45000000</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -2472,41 +1748,19 @@
       <c r="E34" t="s">
         <v>20</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34" s="2">
-        <v>10000000</v>
-      </c>
-      <c r="M34" s="2">
-        <v>10000000</v>
-      </c>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
       <c r="N34" s="2">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="O34" s="2">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="P34" s="2">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="Q34" s="2">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2525,30 +1779,6 @@
       <c r="E35" t="s">
         <v>20</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
       <c r="N35">
         <v>0</v>
       </c>
@@ -2578,30 +1808,8 @@
       <c r="E36" t="s">
         <v>20</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-      <c r="K36">
-        <v>0</v>
-      </c>
-      <c r="L36" s="2">
-        <v>4000000</v>
-      </c>
-      <c r="M36" s="2">
-        <v>4000000</v>
-      </c>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
       <c r="N36" s="2">
         <v>4000000</v>
       </c>
@@ -2631,41 +1839,17 @@
       <c r="E37" t="s">
         <v>20</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37">
-        <v>0</v>
-      </c>
-      <c r="L37">
-        <v>0</v>
-      </c>
-      <c r="M37">
-        <v>0</v>
-      </c>
       <c r="N37">
         <v>0</v>
       </c>
       <c r="O37">
         <v>0</v>
       </c>
-      <c r="P37">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>0</v>
+      <c r="P37" s="2">
+        <v>15000000</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>25000000</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -2684,30 +1868,6 @@
       <c r="E38" t="s">
         <v>20</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
-      <c r="H38">
-        <v>0</v>
-      </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
-      <c r="J38">
-        <v>0</v>
-      </c>
-      <c r="K38">
-        <v>0</v>
-      </c>
-      <c r="L38">
-        <v>0</v>
-      </c>
-      <c r="M38">
-        <v>0</v>
-      </c>
       <c r="N38">
         <v>0</v>
       </c>
@@ -2737,30 +1897,6 @@
       <c r="E39" t="s">
         <v>20</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
       <c r="N39">
         <v>0</v>
       </c>
@@ -2790,30 +1926,6 @@
       <c r="E40" t="s">
         <v>20</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
-      <c r="H40">
-        <v>0</v>
-      </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
       <c r="N40">
         <v>0</v>
       </c>
@@ -2843,35 +1955,11 @@
       <c r="E41" t="s">
         <v>20</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
       <c r="N41">
         <v>0</v>
       </c>
-      <c r="O41">
-        <v>0</v>
+      <c r="O41" s="2">
+        <v>10000000</v>
       </c>
       <c r="P41">
         <v>0</v>
@@ -2896,30 +1984,6 @@
       <c r="E42" t="s">
         <v>20</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
       <c r="N42">
         <v>0</v>
       </c>
@@ -2935,7 +1999,7 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
         <v>23</v>
@@ -2943,47 +2007,22 @@
       <c r="C43" t="s">
         <v>64</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
       <c r="E43" t="s">
         <v>20</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="M43" s="2">
-        <v>15000000</v>
-      </c>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
       <c r="N43" s="2">
-        <v>25000000</v>
+        <v>0</v>
       </c>
       <c r="O43" s="2">
-        <v>25000000</v>
+        <v>5000000</v>
       </c>
       <c r="P43" s="2">
-        <v>35000000</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="2">
-        <v>35000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
@@ -2996,47 +2035,22 @@
       <c r="C44" t="s">
         <v>65</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
       <c r="E44" t="s">
         <v>21</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-      <c r="J44">
-        <v>0</v>
-      </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2">
-        <v>50000000</v>
-      </c>
-      <c r="M44" s="2">
-        <v>50000000</v>
-      </c>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
       <c r="N44" s="2">
         <v>50000000</v>
       </c>
       <c r="O44" s="2">
-        <v>65000000</v>
+        <v>60000000</v>
       </c>
       <c r="P44" s="2">
-        <v>65000000</v>
+        <v>60000000</v>
       </c>
       <c r="Q44" s="2">
-        <v>65000000</v>
+        <v>60000000</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -3055,41 +2069,17 @@
       <c r="E45" t="s">
         <v>21</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>0</v>
-      </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2">
+      <c r="N45" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="O45" s="2">
         <v>40000000</v>
       </c>
-      <c r="M45" s="2">
-        <v>40000000</v>
-      </c>
-      <c r="N45" s="2">
+      <c r="P45" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="Q45" s="2">
         <v>50000000</v>
-      </c>
-      <c r="O45" s="2">
-        <v>50000000</v>
-      </c>
-      <c r="P45" s="2">
-        <v>50000000</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>60000000</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
@@ -3102,47 +2092,17 @@
       <c r="C46" t="s">
         <v>67</v>
       </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
       <c r="E46" t="s">
         <v>21</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46">
-        <v>0</v>
-      </c>
-      <c r="J46">
-        <v>0</v>
-      </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
-      <c r="N46">
-        <v>0</v>
-      </c>
-      <c r="O46">
-        <v>0</v>
-      </c>
-      <c r="P46">
-        <v>0</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
+      <c r="O46" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="P46" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>20000000</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
@@ -3153,149 +2113,48 @@
         <v>23</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
         <v>21</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
-      <c r="H47">
-        <v>0</v>
-      </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
+      <c r="L47" s="2"/>
+      <c r="O47" s="2"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
         <v>23</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48">
-        <v>3000013775</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
         <v>21</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48" s="2">
-        <v>20000000</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
+      <c r="L48" s="2"/>
+      <c r="O48" s="2"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
         <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>70</v>
-      </c>
-      <c r="D49">
-        <v>8000000065</v>
+        <v>68</v>
       </c>
       <c r="E49" t="s">
         <v>21</v>
       </c>
-      <c r="F49">
-        <v>0</v>
-      </c>
-      <c r="G49">
-        <v>0</v>
-      </c>
-      <c r="H49">
-        <v>0</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49" s="2">
-        <v>15000000</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
       <c r="N49">
         <v>0</v>
       </c>
-      <c r="O49" s="2">
-        <v>15000000</v>
+      <c r="O49">
+        <v>0</v>
       </c>
       <c r="P49">
         <v>0</v>
@@ -3312,43 +2171,19 @@
         <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D50">
-        <v>0</v>
+        <v>3000013775</v>
       </c>
       <c r="E50" t="s">
         <v>21</v>
       </c>
-      <c r="F50">
-        <v>0</v>
-      </c>
-      <c r="G50">
-        <v>0</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50">
-        <v>0</v>
+      <c r="O50" s="2">
+        <v>20000000</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -3365,43 +2200,19 @@
         <v>23</v>
       </c>
       <c r="C51" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>8000000065</v>
       </c>
       <c r="E51" t="s">
         <v>21</v>
       </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
-        <v>0</v>
-      </c>
-      <c r="H51">
-        <v>0</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
       <c r="N51">
         <v>0</v>
       </c>
-      <c r="O51">
-        <v>0</v>
+      <c r="O51" s="2">
+        <v>15000000</v>
       </c>
       <c r="P51">
         <v>0</v>
@@ -3418,38 +2229,11 @@
         <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>73</v>
-      </c>
-      <c r="D52">
-        <v>3000005394</v>
+        <v>71</v>
       </c>
       <c r="E52" t="s">
         <v>21</v>
       </c>
-      <c r="F52">
-        <v>0</v>
-      </c>
-      <c r="G52">
-        <v>0</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
       <c r="N52">
         <v>0</v>
       </c>
@@ -3471,46 +2255,19 @@
         <v>23</v>
       </c>
       <c r="C53" t="s">
-        <v>74</v>
-      </c>
-      <c r="D53">
-        <v>3000022471</v>
+        <v>72</v>
       </c>
       <c r="E53" t="s">
         <v>21</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53">
-        <v>0</v>
+      <c r="N53" s="2">
+        <v>4000000</v>
       </c>
       <c r="O53">
         <v>0</v>
       </c>
-      <c r="P53">
-        <v>0</v>
+      <c r="P53" s="2">
+        <v>5000000</v>
       </c>
       <c r="Q53">
         <v>0</v>
@@ -3524,38 +2281,14 @@
         <v>23</v>
       </c>
       <c r="C54" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>3000005394</v>
       </c>
       <c r="E54" t="s">
         <v>21</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
       <c r="N54">
         <v>0</v>
       </c>
@@ -3577,49 +2310,25 @@
         <v>23</v>
       </c>
       <c r="C55" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D55">
-        <v>3000010657</v>
+        <v>3000022471</v>
       </c>
       <c r="E55" t="s">
         <v>21</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
       <c r="N55">
         <v>0</v>
       </c>
-      <c r="O55">
-        <v>0</v>
+      <c r="O55" s="2">
+        <v>5000000</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
-      <c r="Q55">
-        <v>0</v>
+      <c r="Q55" s="2">
+        <v>5000000</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
@@ -3630,155 +2339,68 @@
         <v>23</v>
       </c>
       <c r="C56" t="s">
-        <v>77</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="E56" t="s">
         <v>21</v>
       </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-      <c r="N56">
-        <v>0</v>
-      </c>
-      <c r="O56">
-        <v>0</v>
-      </c>
-      <c r="P56">
-        <v>0</v>
-      </c>
-      <c r="Q56">
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2">
+        <v>0</v>
+      </c>
+      <c r="O56" s="2">
+        <v>0</v>
+      </c>
+      <c r="P56" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="2">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
         <v>23</v>
       </c>
       <c r="C57" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>3000010657</v>
       </c>
       <c r="E57" t="s">
-        <v>22</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57" s="2">
-        <v>50000000</v>
-      </c>
-      <c r="M57" s="2">
-        <v>50000000</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="M57" s="2"/>
       <c r="N57" s="2">
-        <v>50000000</v>
+        <v>30000000</v>
       </c>
       <c r="O57" s="2">
-        <v>65000000</v>
+        <v>30000000</v>
       </c>
       <c r="P57" s="2">
-        <v>65000000</v>
+        <v>40000000</v>
       </c>
       <c r="Q57" s="2">
-        <v>65000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B58" t="s">
         <v>23</v>
       </c>
       <c r="C58" t="s">
-        <v>79</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="E58" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58" s="2">
-        <v>150000000</v>
-      </c>
-      <c r="N58" s="2">
-        <v>150000000</v>
-      </c>
-      <c r="O58" s="2">
-        <v>100000000</v>
-      </c>
-      <c r="P58" s="2">
-        <v>200000000</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>200000000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
@@ -3789,50 +2411,17 @@
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>80</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="E59" t="s">
         <v>22</v>
       </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-      <c r="N59">
-        <v>0</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>0</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
@@ -3842,49 +2431,13 @@
         <v>23</v>
       </c>
       <c r="C60" t="s">
-        <v>81</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="E60" t="s">
         <v>22</v>
       </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>0</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60" s="2">
-        <v>200000000</v>
-      </c>
-      <c r="N60" s="2">
-        <v>200000000</v>
-      </c>
-      <c r="O60" s="2">
-        <v>175000000</v>
-      </c>
-      <c r="P60" s="2">
-        <v>200000000</v>
-      </c>
-      <c r="Q60" s="2">
-        <v>200000000</v>
+      <c r="N60">
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
@@ -3895,49 +2448,22 @@
         <v>23</v>
       </c>
       <c r="C61" t="s">
-        <v>82</v>
-      </c>
-      <c r="D61">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E61" t="s">
         <v>22</v>
       </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61" s="2">
-        <v>40000000</v>
-      </c>
-      <c r="M61" s="2">
-        <v>40000000</v>
-      </c>
-      <c r="N61" s="2">
-        <v>40000000</v>
-      </c>
-      <c r="O61" s="2">
-        <v>45000000</v>
-      </c>
-      <c r="P61" s="2">
-        <v>50000000</v>
-      </c>
-      <c r="Q61" s="2">
-        <v>60000000</v>
+      <c r="N61">
+        <v>0</v>
+      </c>
+      <c r="O61">
+        <v>0</v>
+      </c>
+      <c r="P61">
+        <v>0</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
@@ -3948,49 +2474,22 @@
         <v>23</v>
       </c>
       <c r="C62" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62">
-        <v>3000004855</v>
+        <v>81</v>
       </c>
       <c r="E62" t="s">
         <v>22</v>
       </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>0</v>
-      </c>
-      <c r="M62">
-        <v>0</v>
-      </c>
-      <c r="N62">
-        <v>0</v>
-      </c>
-      <c r="O62">
-        <v>0</v>
-      </c>
-      <c r="P62">
-        <v>0</v>
-      </c>
-      <c r="Q62">
-        <v>0</v>
+      <c r="N62" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="O62" s="2">
+        <v>175000000</v>
+      </c>
+      <c r="P62" s="2">
+        <v>200000000</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>200000000</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
@@ -4001,49 +2500,22 @@
         <v>23</v>
       </c>
       <c r="C63" t="s">
-        <v>84</v>
-      </c>
-      <c r="D63">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="E63" t="s">
         <v>22</v>
       </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>0</v>
-      </c>
-      <c r="L63">
-        <v>0</v>
-      </c>
-      <c r="M63">
-        <v>0</v>
-      </c>
-      <c r="N63">
-        <v>0</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
+      <c r="N63" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="O63" s="2">
+        <v>45000000</v>
+      </c>
+      <c r="P63" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="Q63" s="2">
+        <v>60000000</v>
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
@@ -4054,38 +2526,14 @@
         <v>23</v>
       </c>
       <c r="C64" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>3000004855</v>
       </c>
       <c r="E64" t="s">
         <v>22</v>
       </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
       <c r="N64">
         <v>0</v>
       </c>
@@ -4107,38 +2555,11 @@
         <v>23</v>
       </c>
       <c r="C65" t="s">
-        <v>86</v>
-      </c>
-      <c r="D65">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="E65" t="s">
         <v>22</v>
       </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>0</v>
-      </c>
-      <c r="L65">
-        <v>0</v>
-      </c>
-      <c r="M65">
-        <v>0</v>
-      </c>
       <c r="N65">
         <v>0</v>
       </c>
@@ -4160,49 +2581,19 @@
         <v>23</v>
       </c>
       <c r="C66" t="s">
-        <v>87</v>
-      </c>
-      <c r="D66">
-        <v>3000012177</v>
+        <v>85</v>
       </c>
       <c r="E66" t="s">
         <v>22</v>
       </c>
-      <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>0</v>
-      </c>
-      <c r="L66">
-        <v>0</v>
-      </c>
-      <c r="M66">
-        <v>0</v>
-      </c>
-      <c r="N66">
-        <v>0</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
+      <c r="O66" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="P66" s="2">
+        <v>40000000</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>40000000</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
@@ -4213,49 +2604,19 @@
         <v>23</v>
       </c>
       <c r="C67" t="s">
-        <v>88</v>
-      </c>
-      <c r="D67">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="E67" t="s">
         <v>22</v>
       </c>
-      <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-      <c r="I67">
-        <v>0</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>0</v>
-      </c>
-      <c r="L67">
-        <v>0</v>
-      </c>
-      <c r="M67">
-        <v>0</v>
-      </c>
-      <c r="N67">
-        <v>0</v>
-      </c>
-      <c r="O67">
-        <v>0</v>
-      </c>
-      <c r="P67">
-        <v>0</v>
-      </c>
-      <c r="Q67">
-        <v>0</v>
+      <c r="O67" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="P67" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>30000000</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
@@ -4266,38 +2627,14 @@
         <v>23</v>
       </c>
       <c r="C68" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>3000012177</v>
       </c>
       <c r="E68" t="s">
         <v>22</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-      <c r="H68">
-        <v>0</v>
-      </c>
-      <c r="I68">
-        <v>0</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>0</v>
-      </c>
-      <c r="L68">
-        <v>0</v>
-      </c>
-      <c r="M68">
-        <v>0</v>
-      </c>
       <c r="N68">
         <v>0</v>
       </c>
@@ -4313,215 +2650,80 @@
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
         <v>23</v>
       </c>
       <c r="C69" t="s">
-        <v>90</v>
-      </c>
-      <c r="D69">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="E69" t="s">
         <v>22</v>
       </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
-      </c>
-      <c r="Q69">
-        <v>0</v>
+      <c r="P69" s="2">
+        <v>35000000</v>
+      </c>
+      <c r="Q69" s="2">
+        <v>50000000</v>
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
         <v>23</v>
       </c>
       <c r="C70" t="s">
-        <v>91</v>
-      </c>
-      <c r="D70">
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="E70" t="s">
         <v>22</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-      <c r="H70">
-        <v>0</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>0</v>
-      </c>
-      <c r="O70">
-        <v>0</v>
-      </c>
-      <c r="P70">
-        <v>0</v>
-      </c>
-      <c r="Q70">
-        <v>0</v>
+      <c r="P70" s="2">
+        <v>50000000</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>50000000</v>
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
         <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>92</v>
-      </c>
-      <c r="D71">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="E71" t="s">
         <v>22</v>
       </c>
-      <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>0</v>
-      </c>
-      <c r="O71">
-        <v>0</v>
-      </c>
-      <c r="P71">
-        <v>0</v>
-      </c>
-      <c r="Q71">
-        <v>0</v>
+      <c r="O71" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="P71" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>30000000</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
         <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>93</v>
-      </c>
-      <c r="D72">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="E72" t="s">
         <v>22</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
-      </c>
-      <c r="L72">
-        <v>0</v>
-      </c>
-      <c r="M72">
-        <v>0</v>
-      </c>
-      <c r="N72">
-        <v>0</v>
-      </c>
-      <c r="O72">
-        <v>0</v>
-      </c>
-      <c r="P72">
-        <v>0</v>
-      </c>
-      <c r="Q72">
-        <v>0</v>
-      </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
@@ -4531,49 +2733,16 @@
         <v>23</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="E73" t="s">
         <v>22</v>
       </c>
-      <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
-      </c>
-      <c r="H73">
-        <v>0</v>
-      </c>
-      <c r="I73">
-        <v>0</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>0</v>
-      </c>
-      <c r="O73">
-        <v>0</v>
-      </c>
-      <c r="P73">
-        <v>0</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
+      <c r="P73" s="2">
+        <v>30000000</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>40000000</v>
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
@@ -4584,59 +2753,146 @@
         <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>95</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="E74" t="s">
         <v>22</v>
       </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="H74">
-        <v>0</v>
-      </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-      <c r="P74">
-        <v>0</v>
-      </c>
-      <c r="Q74">
-        <v>0</v>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>17</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="N75">
+        <v>0</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+      <c r="P75">
+        <v>0</v>
+      </c>
+      <c r="Q75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>17</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" t="s">
+        <v>93</v>
+      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" t="s">
+        <v>22</v>
+      </c>
+      <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76">
+        <v>0</v>
+      </c>
+      <c r="P76">
+        <v>0</v>
+      </c>
+      <c r="Q76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>17</v>
+      </c>
+      <c r="B77" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" t="s">
+        <v>100</v>
+      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" t="s">
+        <v>22</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77">
+        <v>0</v>
+      </c>
+      <c r="P77" s="2">
+        <v>20000000</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>25000000</v>
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D78" s="1"/>
+      <c r="A78" t="s">
+        <v>17</v>
+      </c>
+      <c r="B78" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" t="s">
+        <v>94</v>
+      </c>
+      <c r="E78" t="s">
+        <v>22</v>
+      </c>
+      <c r="N78">
+        <v>0</v>
+      </c>
+      <c r="O78">
+        <v>0</v>
+      </c>
+      <c r="P78">
+        <v>0</v>
+      </c>
+      <c r="Q78">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D79" s="1"/>
-    </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D84" s="1"/>
+      <c r="A79" t="s">
+        <v>17</v>
+      </c>
+      <c r="B79" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" t="s">
+        <v>95</v>
+      </c>
+      <c r="E79" t="s">
+        <v>22</v>
+      </c>
+      <c r="N79">
+        <v>0</v>
+      </c>
+      <c r="O79">
+        <v>0</v>
+      </c>
+      <c r="P79">
+        <v>0</v>
+      </c>
+      <c r="Q79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D82" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
